--- a/research/heat/heat.xlsx
+++ b/research/heat/heat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/research/heat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D0DA6-70BD-2245-A89E-1FBAF0A94B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AE264-0F18-2B4F-889F-20F4B3655BE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{27A71E1D-9A1B-F94D-A4BA-4082CFCBB010}"/>
   </bookViews>
@@ -181,6 +181,9 @@
                 <c:pt idx="3">
                   <c:v>44239</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>44254</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -201,6 +204,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1B1E8-64A1-1D4F-9F5C-008EEDFC049A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,6 +1347,14 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B6">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
